--- a/res_img/resnet50-moreways-10k-size(768)-medium-trainset(0.2k)/动态.xlsx
+++ b/res_img/resnet50-moreways-10k-size(768)-medium-trainset(0.2k)/动态.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Remote_GDJC\res_img\resnet50-moreways-10k-size(768)-medium-trainset(0.2k)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8F54E3-DED2-4C72-9860-3D7DCBE302E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B201F29-3332-402B-B580-F9348A76D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>map</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>15k</t>
+  </si>
+  <si>
+    <t>average last 3 row:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1831,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2109,6 +2113,27 @@
       </c>
       <c r="E16">
         <v>0.151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B14:B16)/3</f>
+        <v>0.47633333333333328</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:E19" si="0">SUM(C14:C16)/3</f>
+        <v>0.51533333333333331</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.53566666666666674</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.14600000000000002</v>
       </c>
     </row>
   </sheetData>
